--- a/data/yearwise/2014.xlsx
+++ b/data/yearwise/2014.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NEFT!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="190">
   <si>
     <t>Bank</t>
   </si>
@@ -307,9 +307,6 @@
     <t>BARCLAYS BANK</t>
   </si>
   <si>
-    <t xml:space="preserve">CITI BANK </t>
-  </si>
-  <si>
     <t>CITY UNION BANK LTD</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
   </si>
   <si>
     <t>DEUSTCHE BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVELOPMENT CREDIT BANK </t>
   </si>
   <si>
     <t>DHANLAXMI BANK LTD</t>
@@ -472,9 +466,6 @@
     <t>SUMITOMO MITSUI BANKING CORPORATION</t>
   </si>
   <si>
-    <t>SURAT DISTRICT COOPERATIVE BANK Ltd</t>
-  </si>
-  <si>
     <t>SURAT PEOPLES COOPERATIVE BANK</t>
   </si>
   <si>
@@ -529,12 +520,6 @@
     <t>THE VISHWESHWAR SAHAKARI BANK LTD</t>
   </si>
   <si>
-    <t xml:space="preserve">TUMKUR GRAIN MERCHANTS COOP BANK </t>
-  </si>
-  <si>
-    <t>The Gadchiroli Dist Co-Op Bank</t>
-  </si>
-  <si>
     <t>UNITED OVERSEAS BANK LTD</t>
   </si>
   <si>
@@ -550,16 +535,10 @@
     <t>ZILA SAHKARI BANK LTD GHAZIABAD</t>
   </si>
   <si>
-    <t>Akola Janata Commercial Co-Op Bank</t>
-  </si>
-  <si>
     <t>NAGAR URBAN COOP BANK LTD</t>
   </si>
   <si>
     <t>RAJGURUNAGAR SAHAKARI BANK LTD</t>
-  </si>
-  <si>
-    <t>ANZ Banking Group Limited</t>
   </si>
   <si>
     <t>CTBC BANK CO LTD</t>
@@ -586,10 +565,28 @@
     <t>BHARATIYA MAHILA BANK LTD</t>
   </si>
   <si>
-    <t>Kerala Gramin Bank</t>
+    <t>CITI BANK</t>
   </si>
   <si>
-    <t>Pragathi Krishna Gramin Bank</t>
+    <t>DEVELOPMENT CREDIT BANK</t>
+  </si>
+  <si>
+    <t>SURAT DISTRICT COOPERATIVE BANK LTD</t>
+  </si>
+  <si>
+    <t>TUMKUR GRAIN MERCHANTS COOP BANK</t>
+  </si>
+  <si>
+    <t>THE GADCHIROLI DIST CO-OP BANK</t>
+  </si>
+  <si>
+    <t>AKOLA JANATA COMMERCIAL CO-OP BANK</t>
+  </si>
+  <si>
+    <t>KERALA GRAMIN BANK</t>
+  </si>
+  <si>
+    <t>PRAGATHI KRISHNA GRAMIN BANK</t>
   </si>
 </sst>
 </file>
@@ -982,7 +979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,7 +1685,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B31">
         <v>3052410</v>
@@ -1734,7 +1731,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>289615</v>
@@ -1803,7 +1800,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>24632</v>
@@ -1826,7 +1823,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>813</v>
@@ -1849,7 +1846,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -1872,7 +1869,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1918,7 +1915,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>693255</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="B43">
         <v>73143</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44">
         <v>103544</v>
@@ -2056,7 +2053,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47">
         <v>709782</v>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>3244</v>
@@ -2148,7 +2145,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>7705205</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53">
         <v>208</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58">
         <v>784215</v>
@@ -2332,7 +2329,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59">
         <v>27</v>
@@ -2355,7 +2352,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60">
         <v>669832</v>
@@ -2378,7 +2375,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61">
         <v>2669</v>
@@ -2401,7 +2398,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B62">
         <v>1020</v>
@@ -2424,7 +2421,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63">
         <v>68596</v>
@@ -2447,7 +2444,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>3370</v>
@@ -2470,7 +2467,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B65">
         <v>5608</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2516,7 +2513,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67">
         <v>1540</v>
@@ -2585,7 +2582,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B70">
         <v>4136</v>
@@ -2608,7 +2605,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71">
         <v>2457</v>
@@ -2631,7 +2628,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B72">
         <v>1142</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B73">
         <v>2182</v>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B74">
         <v>155086</v>
@@ -2723,7 +2720,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B76">
         <v>18938</v>
@@ -2746,7 +2743,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77">
         <v>328987</v>
@@ -2769,7 +2766,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B78">
         <v>1143345</v>
@@ -2792,7 +2789,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B79">
         <v>2493</v>
@@ -2838,7 +2835,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81">
         <v>2784</v>
@@ -2861,7 +2858,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82">
         <v>1142</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B84">
         <v>3407</v>
@@ -2930,7 +2927,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B85">
         <v>4406</v>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B86">
         <v>1265</v>
@@ -2976,7 +2973,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B87">
         <v>78</v>
@@ -2999,7 +2996,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B88">
         <v>4163</v>
@@ -3022,7 +3019,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B89">
         <v>9087</v>
@@ -3045,7 +3042,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -3137,7 +3134,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B94">
         <v>1221</v>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>2555</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>2557</v>
@@ -3252,7 +3249,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>10900</v>
@@ -3321,7 +3318,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B102">
         <v>86</v>
@@ -3344,7 +3341,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B103">
         <v>1853</v>
@@ -3390,7 +3387,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B105">
         <v>86312</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B106">
         <v>40319</v>
@@ -3459,7 +3456,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B108">
         <v>1285</v>
@@ -3482,7 +3479,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B109">
         <v>31964</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B111">
         <v>1504</v>
@@ -3574,7 +3571,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113">
         <v>155</v>
@@ -3620,7 +3617,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B115">
         <v>1575745</v>
@@ -3804,7 +3801,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B123">
         <v>372</v>
@@ -3827,7 +3824,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B124">
         <v>1738</v>
@@ -3850,7 +3847,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B125">
         <v>2387</v>
@@ -3873,7 +3870,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B126">
         <v>838</v>
@@ -3919,7 +3916,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>6026</v>
@@ -3942,7 +3939,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>128248</v>
@@ -3965,7 +3962,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>1272</v>
@@ -3988,7 +3985,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>1161</v>
@@ -4011,7 +4008,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B132">
         <v>14265</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B133">
         <v>3181</v>
@@ -4057,7 +4054,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B134">
         <v>729</v>
@@ -4080,7 +4077,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B135">
         <v>372</v>
@@ -4103,7 +4100,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>8570</v>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B137">
         <v>728</v>
@@ -4149,7 +4146,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>8343</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>245</v>
@@ -4195,7 +4192,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B140">
         <v>221614</v>
@@ -4218,7 +4215,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B141">
         <v>978</v>
@@ -4241,7 +4238,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B142">
         <v>1076</v>
@@ -4264,7 +4261,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B143">
         <v>2251</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B144">
         <v>569</v>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B145">
         <v>525</v>
@@ -4425,7 +4422,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -4448,7 +4445,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B151">
         <v>958</v>
@@ -4517,7 +4514,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B154">
         <v>31</v>
@@ -4563,7 +4560,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B156">
         <v>1426899</v>
@@ -4586,7 +4583,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -5276,7 +5273,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B187">
         <v>2863295</v>
@@ -5322,7 +5319,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B189">
         <v>282742</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B192">
         <v>22855</v>
@@ -5414,7 +5411,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B193">
         <v>785</v>
@@ -5437,7 +5434,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B194">
         <v>29</v>
@@ -5460,7 +5457,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -5506,7 +5503,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B197">
         <v>675849</v>
@@ -5552,7 +5549,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="B199">
         <v>73906</v>
@@ -5575,7 +5572,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B200">
         <v>97663</v>
@@ -5644,7 +5641,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B203">
         <v>644566</v>
@@ -5690,7 +5687,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B205">
         <v>2922</v>
@@ -5736,7 +5733,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B207">
         <v>7198011</v>
@@ -5782,7 +5779,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B209">
         <v>200</v>
@@ -5897,7 +5894,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B214">
         <v>669691</v>
@@ -5920,7 +5917,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B215">
         <v>60</v>
@@ -5943,7 +5940,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B216">
         <v>637993</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B217">
         <v>2294</v>
@@ -5989,7 +5986,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B218">
         <v>845</v>
@@ -6012,7 +6009,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B219">
         <v>64823</v>
@@ -6035,7 +6032,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B220">
         <v>2985</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B221">
         <v>5279</v>
@@ -6081,7 +6078,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B222">
         <v>314</v>
@@ -6104,7 +6101,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B223">
         <v>1313</v>
@@ -6173,7 +6170,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B226">
         <v>4014</v>
@@ -6196,7 +6193,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B227">
         <v>2031</v>
@@ -6219,7 +6216,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B228">
         <v>1055</v>
@@ -6242,7 +6239,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B229">
         <v>1898</v>
@@ -6265,7 +6262,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B230">
         <v>138828</v>
@@ -6311,7 +6308,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B232">
         <v>18528</v>
@@ -6334,7 +6331,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B233">
         <v>325893</v>
@@ -6357,7 +6354,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B234">
         <v>1104037</v>
@@ -6380,7 +6377,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B235">
         <v>1942</v>
@@ -6426,7 +6423,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B237">
         <v>2563</v>
@@ -6449,7 +6446,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B238">
         <v>975</v>
@@ -6495,7 +6492,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B240">
         <v>3522</v>
@@ -6518,7 +6515,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B241">
         <v>4601</v>
@@ -6541,7 +6538,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B242">
         <v>562</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B243">
         <v>60</v>
@@ -6587,7 +6584,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B244">
         <v>2893</v>
@@ -6610,7 +6607,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B245">
         <v>7949</v>
@@ -6633,7 +6630,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6725,7 +6722,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B250">
         <v>1157</v>
@@ -6771,7 +6768,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B252">
         <v>2167</v>
@@ -6817,7 +6814,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B254">
         <v>2236</v>
@@ -6840,7 +6837,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B255">
         <v>10077</v>
@@ -6909,7 +6906,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B258">
         <v>89</v>
@@ -6932,7 +6929,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B259">
         <v>1756</v>
@@ -6978,7 +6975,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B261">
         <v>80587</v>
@@ -7001,7 +6998,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B262">
         <v>35864</v>
@@ -7047,7 +7044,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B264">
         <v>1198</v>
@@ -7070,7 +7067,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B265">
         <v>27286</v>
@@ -7116,7 +7113,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B267">
         <v>1462</v>
@@ -7162,7 +7159,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B269">
         <v>368</v>
@@ -7208,7 +7205,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B271">
         <v>1413809</v>
@@ -7392,7 +7389,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B279">
         <v>423</v>
@@ -7415,7 +7412,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B280">
         <v>1672</v>
@@ -7438,7 +7435,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B281">
         <v>2385</v>
@@ -7461,7 +7458,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B282">
         <v>833</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B284">
         <v>5801</v>
@@ -7530,7 +7527,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B285">
         <v>131364</v>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B286">
         <v>1105</v>
@@ -7576,7 +7573,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B287">
         <v>1555</v>
@@ -7599,7 +7596,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B288">
         <v>12711</v>
@@ -7622,7 +7619,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B289">
         <v>2804</v>
@@ -7645,7 +7642,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B290">
         <v>997</v>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B291">
         <v>394</v>
@@ -7691,7 +7688,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B292">
         <v>7406</v>
@@ -7714,7 +7711,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B293">
         <v>719</v>
@@ -7737,7 +7734,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B294">
         <v>6948</v>
@@ -7760,7 +7757,7 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B295">
         <v>239</v>
@@ -7783,7 +7780,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B296">
         <v>208203</v>
@@ -7806,7 +7803,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B297">
         <v>860</v>
@@ -7829,7 +7826,7 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B298">
         <v>1147</v>
@@ -7852,7 +7849,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B299">
         <v>1848</v>
@@ -7875,7 +7872,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B300">
         <v>689</v>
@@ -7898,7 +7895,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B301">
         <v>690</v>
@@ -8013,7 +8010,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B306">
         <v>43</v>
@@ -8036,7 +8033,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B307">
         <v>906</v>
@@ -8105,7 +8102,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B310">
         <v>20</v>
@@ -8151,7 +8148,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B312">
         <v>1309034</v>
@@ -8174,7 +8171,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -8864,7 +8861,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B343">
         <v>3289864</v>
@@ -8910,7 +8907,7 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B345">
         <v>424866</v>
@@ -8979,7 +8976,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B348">
         <v>29680</v>
@@ -9002,7 +8999,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B349">
         <v>857</v>
@@ -9025,7 +9022,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B350">
         <v>30</v>
@@ -9048,7 +9045,7 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -9094,7 +9091,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B353">
         <v>914071</v>
@@ -9140,7 +9137,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="B355">
         <v>81823</v>
@@ -9163,7 +9160,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B356">
         <v>110449</v>
@@ -9232,7 +9229,7 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B359">
         <v>812852</v>
@@ -9278,7 +9275,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B361">
         <v>3531</v>
@@ -9324,7 +9321,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B363">
         <v>9026051</v>
@@ -9370,7 +9367,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B365">
         <v>220</v>
@@ -9485,7 +9482,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B370">
         <v>855461</v>
@@ -9508,7 +9505,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B371">
         <v>71</v>
@@ -9531,7 +9528,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B372">
         <v>803877</v>
@@ -9554,7 +9551,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B373">
         <v>2943</v>
@@ -9577,7 +9574,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B374">
         <v>1143</v>
@@ -9600,7 +9597,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B375">
         <v>78409</v>
@@ -9623,7 +9620,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B376">
         <v>3675</v>
@@ -9646,7 +9643,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B377">
         <v>6434</v>
@@ -9669,7 +9666,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B378">
         <v>523</v>
@@ -9692,7 +9689,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B379">
         <v>1686</v>
@@ -9761,7 +9758,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B382">
         <v>6198</v>
@@ -9784,7 +9781,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B383">
         <v>2558</v>
@@ -9807,7 +9804,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B384">
         <v>1412</v>
@@ -9830,7 +9827,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B385">
         <v>2512</v>
@@ -9853,7 +9850,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B386">
         <v>152628</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B388">
         <v>19400</v>
@@ -9922,7 +9919,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B389">
         <v>382621</v>
@@ -9945,7 +9942,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B390">
         <v>1410453</v>
@@ -9968,7 +9965,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B391">
         <v>2185</v>
@@ -10014,7 +10011,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B393">
         <v>3160</v>
@@ -10037,7 +10034,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B394">
         <v>1338</v>
@@ -10083,7 +10080,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B396">
         <v>4634</v>
@@ -10106,7 +10103,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B397">
         <v>5402</v>
@@ -10129,7 +10126,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B398">
         <v>971</v>
@@ -10152,7 +10149,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B399">
         <v>121</v>
@@ -10175,7 +10172,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B400">
         <v>3503</v>
@@ -10198,7 +10195,7 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B401">
         <v>10171</v>
@@ -10221,7 +10218,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -10313,7 +10310,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B406">
         <v>1766</v>
@@ -10359,7 +10356,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B408">
         <v>2774</v>
@@ -10405,7 +10402,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B410">
         <v>2654</v>
@@ -10428,7 +10425,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B411">
         <v>12316</v>
@@ -10497,7 +10494,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B414">
         <v>245</v>
@@ -10520,7 +10517,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B415">
         <v>2525</v>
@@ -10566,7 +10563,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B417">
         <v>92839</v>
@@ -10589,7 +10586,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B418">
         <v>44664</v>
@@ -10635,7 +10632,7 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B420">
         <v>1588</v>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B421">
         <v>34475</v>
@@ -10704,7 +10701,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B423">
         <v>1613</v>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B425">
         <v>741</v>
@@ -10796,7 +10793,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B427">
         <v>1783323</v>
@@ -10980,7 +10977,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B435">
         <v>578</v>
@@ -11003,7 +11000,7 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B436">
         <v>2184</v>
@@ -11026,7 +11023,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B437">
         <v>2992</v>
@@ -11049,7 +11046,7 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B438">
         <v>1249</v>
@@ -11095,7 +11092,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B440">
         <v>6237</v>
@@ -11118,7 +11115,7 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B441">
         <v>149229</v>
@@ -11141,7 +11138,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B442">
         <v>1448</v>
@@ -11164,7 +11161,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B443">
         <v>2243</v>
@@ -11187,7 +11184,7 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B444">
         <v>16409</v>
@@ -11210,7 +11207,7 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B445">
         <v>3579</v>
@@ -11233,7 +11230,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B446">
         <v>1982</v>
@@ -11256,7 +11253,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B447">
         <v>707</v>
@@ -11279,7 +11276,7 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B448">
         <v>8388</v>
@@ -11302,7 +11299,7 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B449">
         <v>914</v>
@@ -11325,7 +11322,7 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B450">
         <v>7891</v>
@@ -11348,7 +11345,7 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B451">
         <v>282</v>
@@ -11371,7 +11368,7 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B452">
         <v>237427</v>
@@ -11394,7 +11391,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B453">
         <v>982</v>
@@ -11417,7 +11414,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B454">
         <v>1559</v>
@@ -11440,7 +11437,7 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B455">
         <v>2231</v>
@@ -11463,7 +11460,7 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B456">
         <v>780</v>
@@ -11486,7 +11483,7 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B457">
         <v>1569</v>
@@ -11601,7 +11598,7 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B462">
         <v>44</v>
@@ -11624,7 +11621,7 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B463">
         <v>1099</v>
@@ -11693,7 +11690,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B466">
         <v>22</v>
@@ -11739,7 +11736,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B468">
         <v>1556449</v>
@@ -11762,7 +11759,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B469">
         <v>134</v>
@@ -12038,7 +12035,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -12475,7 +12472,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B500">
         <v>2949096</v>
@@ -12521,7 +12518,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B502">
         <v>253359</v>
@@ -12590,7 +12587,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B505">
         <v>27625</v>
@@ -12613,7 +12610,7 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B506">
         <v>755</v>
@@ -12636,7 +12633,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B507">
         <v>62</v>
@@ -12659,7 +12656,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B508">
         <v>11</v>
@@ -12705,7 +12702,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B510">
         <v>985992</v>
@@ -12751,7 +12748,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="B512">
         <v>84083</v>
@@ -12774,7 +12771,7 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B513">
         <v>108930</v>
@@ -12843,7 +12840,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B516">
         <v>690968</v>
@@ -12889,7 +12886,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B518">
         <v>3629</v>
@@ -12935,7 +12932,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B520">
         <v>7708516</v>
@@ -12981,7 +12978,7 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B522">
         <v>239</v>
@@ -13096,7 +13093,7 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B527">
         <v>578697</v>
@@ -13119,7 +13116,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B528">
         <v>115</v>
@@ -13142,7 +13139,7 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B529">
         <v>543005</v>
@@ -13165,7 +13162,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B530">
         <v>3006</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B531">
         <v>1204</v>
@@ -13211,7 +13208,7 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B532">
         <v>76176</v>
@@ -13234,7 +13231,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B533">
         <v>3503</v>
@@ -13257,7 +13254,7 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B534">
         <v>6078</v>
@@ -13280,7 +13277,7 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B535">
         <v>561</v>
@@ -13303,7 +13300,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B536">
         <v>1862</v>
@@ -13372,7 +13369,7 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B539">
         <v>4710</v>
@@ -13395,7 +13392,7 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B540">
         <v>2722</v>
@@ -13418,7 +13415,7 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B541">
         <v>1246</v>
@@ -13441,7 +13438,7 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B542">
         <v>2345</v>
@@ -13464,7 +13461,7 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B543">
         <v>144948</v>
@@ -13510,7 +13507,7 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B545">
         <v>18393</v>
@@ -13533,7 +13530,7 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B546">
         <v>399367</v>
@@ -13556,7 +13553,7 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B547">
         <v>1091476</v>
@@ -13579,7 +13576,7 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B548">
         <v>2199</v>
@@ -13625,7 +13622,7 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B550">
         <v>3137</v>
@@ -13648,7 +13645,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B551">
         <v>1139</v>
@@ -13694,7 +13691,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B553">
         <v>3468</v>
@@ -13717,7 +13714,7 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B554">
         <v>4470</v>
@@ -13740,7 +13737,7 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B555">
         <v>1406</v>
@@ -13763,7 +13760,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B556">
         <v>98</v>
@@ -13786,7 +13783,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B557">
         <v>13</v>
@@ -13809,7 +13806,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B558">
         <v>3403</v>
@@ -13832,7 +13829,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B559">
         <v>8798</v>
@@ -13855,7 +13852,7 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B560">
         <v>2</v>
@@ -13947,7 +13944,7 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B564">
         <v>1252</v>
@@ -13993,7 +13990,7 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B566">
         <v>2680</v>
@@ -14039,7 +14036,7 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B568">
         <v>2287</v>
@@ -14062,7 +14059,7 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B569">
         <v>11880</v>
@@ -14131,7 +14128,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B572">
         <v>256</v>
@@ -14154,7 +14151,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B573">
         <v>89</v>
@@ -14177,7 +14174,7 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B574">
         <v>2026</v>
@@ -14223,7 +14220,7 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B576">
         <v>123736</v>
@@ -14246,7 +14243,7 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B577">
         <v>42358</v>
@@ -14292,7 +14289,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B579">
         <v>1579</v>
@@ -14315,7 +14312,7 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B580">
         <v>34717</v>
@@ -14361,7 +14358,7 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B582">
         <v>1562</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B584">
         <v>669</v>
@@ -14453,7 +14450,7 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B586">
         <v>1564713</v>
@@ -14637,7 +14634,7 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B594">
         <v>662</v>
@@ -14660,7 +14657,7 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B595">
         <v>1797</v>
@@ -14683,7 +14680,7 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B596">
         <v>2440</v>
@@ -14706,7 +14703,7 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B597">
         <v>1061</v>
@@ -14752,7 +14749,7 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B599">
         <v>7075</v>
@@ -14775,7 +14772,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B600">
         <v>137114</v>
@@ -14798,7 +14795,7 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B601">
         <v>1269</v>
@@ -14821,7 +14818,7 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B602">
         <v>1691</v>
@@ -14844,7 +14841,7 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B603">
         <v>15370</v>
@@ -14867,7 +14864,7 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B604">
         <v>3356</v>
@@ -14890,7 +14887,7 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B605">
         <v>2749</v>
@@ -14913,7 +14910,7 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B606">
         <v>901</v>
@@ -14936,7 +14933,7 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B607">
         <v>7707</v>
@@ -14959,7 +14956,7 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B608">
         <v>881</v>
@@ -14982,7 +14979,7 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B609">
         <v>7387</v>
@@ -15005,7 +15002,7 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B610">
         <v>252</v>
@@ -15028,7 +15025,7 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B611">
         <v>209354</v>
@@ -15051,7 +15048,7 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B612">
         <v>1019</v>
@@ -15074,7 +15071,7 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B613">
         <v>1395</v>
@@ -15097,7 +15094,7 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B614">
         <v>2059</v>
@@ -15120,7 +15117,7 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B615">
         <v>804</v>
@@ -15143,7 +15140,7 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B616">
         <v>1835</v>
@@ -15258,7 +15255,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B621">
         <v>51</v>
@@ -15281,7 +15278,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B622">
         <v>947</v>
@@ -15350,7 +15347,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B625">
         <v>28</v>
@@ -15396,7 +15393,7 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B627">
         <v>1290126</v>
@@ -15419,7 +15416,7 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B628">
         <v>164</v>
@@ -15626,7 +15623,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B637">
         <v>23991</v>
@@ -16086,7 +16083,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B657">
         <v>3080473</v>
@@ -16132,7 +16129,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B659">
         <v>276266</v>
@@ -16201,7 +16198,7 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B662">
         <v>27968</v>
@@ -16224,7 +16221,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B663">
         <v>983</v>
@@ -16270,7 +16267,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B665">
         <v>156</v>
@@ -16293,7 +16290,7 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B666">
         <v>94011</v>
@@ -16316,7 +16313,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B667">
         <v>31</v>
@@ -16362,7 +16359,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B669">
         <v>1008399</v>
@@ -16408,7 +16405,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B671">
         <v>111804</v>
@@ -16477,7 +16474,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B674">
         <v>765666</v>
@@ -16523,7 +16520,7 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B676">
         <v>2546</v>
@@ -16546,7 +16543,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B677">
         <v>3615</v>
@@ -16569,7 +16566,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B678">
         <v>8336108</v>
@@ -16615,7 +16612,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B680">
         <v>219</v>
@@ -16730,7 +16727,7 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B685">
         <v>664028</v>
@@ -16753,7 +16750,7 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B686">
         <v>88</v>
@@ -16776,7 +16773,7 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B687">
         <v>557625</v>
@@ -16799,7 +16796,7 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B688">
         <v>3306</v>
@@ -16822,7 +16819,7 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B689">
         <v>1291</v>
@@ -16845,7 +16842,7 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B690">
         <v>90984</v>
@@ -16868,7 +16865,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B691">
         <v>3160</v>
@@ -16891,7 +16888,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B692">
         <v>6722</v>
@@ -16914,7 +16911,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B693">
         <v>567</v>
@@ -16937,7 +16934,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B694">
         <v>1736</v>
@@ -17006,7 +17003,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B697">
         <v>5265</v>
@@ -17029,7 +17026,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B698">
         <v>2426</v>
@@ -17052,7 +17049,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B699">
         <v>1339</v>
@@ -17075,7 +17072,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B700">
         <v>2444</v>
@@ -17098,7 +17095,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B701">
         <v>145731</v>
@@ -17144,7 +17141,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B703">
         <v>16435</v>
@@ -17167,7 +17164,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B704">
         <v>409960</v>
@@ -17190,7 +17187,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B705">
         <v>1164914</v>
@@ -17213,7 +17210,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B706">
         <v>2411</v>
@@ -17259,7 +17256,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B708">
         <v>3340</v>
@@ -17282,7 +17279,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B709">
         <v>1221</v>
@@ -17328,7 +17325,7 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B711">
         <v>3968</v>
@@ -17351,7 +17348,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B712">
         <v>5102</v>
@@ -17374,7 +17371,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B713">
         <v>669</v>
@@ -17397,7 +17394,7 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B714">
         <v>112</v>
@@ -17420,7 +17417,7 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B715">
         <v>926</v>
@@ -17466,7 +17463,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B717">
         <v>9517</v>
@@ -17489,7 +17486,7 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B718">
         <v>2</v>
@@ -17581,7 +17578,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B722">
         <v>1542</v>
@@ -17650,7 +17647,7 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B725">
         <v>2742</v>
@@ -17673,7 +17670,7 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B726">
         <v>11835</v>
@@ -17742,7 +17739,7 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B729">
         <v>266</v>
@@ -17765,7 +17762,7 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B730">
         <v>1458</v>
@@ -17788,7 +17785,7 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B731">
         <v>2575</v>
@@ -17834,7 +17831,7 @@
     </row>
     <row r="733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B733">
         <v>91839</v>
@@ -17857,7 +17854,7 @@
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B734">
         <v>42981</v>
@@ -17880,7 +17877,7 @@
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B735">
         <v>4082</v>
@@ -17926,7 +17923,7 @@
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B737">
         <v>1710</v>
@@ -17949,7 +17946,7 @@
     </row>
     <row r="738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B738">
         <v>32061</v>
@@ -17995,7 +17992,7 @@
     </row>
     <row r="740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B740">
         <v>1601</v>
@@ -18041,7 +18038,7 @@
     </row>
     <row r="742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B742">
         <v>444</v>
@@ -18087,7 +18084,7 @@
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B744">
         <v>1569668</v>
@@ -18271,7 +18268,7 @@
     </row>
     <row r="752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B752">
         <v>821</v>
@@ -18294,7 +18291,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B753">
         <v>1995</v>
@@ -18317,7 +18314,7 @@
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B754">
         <v>2894</v>
@@ -18340,7 +18337,7 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B755">
         <v>1227</v>
@@ -18386,7 +18383,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B757">
         <v>7319</v>
@@ -18409,7 +18406,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B758">
         <v>137047</v>
@@ -18432,7 +18429,7 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B759">
         <v>1375</v>
@@ -18455,7 +18452,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B760">
         <v>2365</v>
@@ -18478,7 +18475,7 @@
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B761">
         <v>15050</v>
@@ -18501,7 +18498,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B762">
         <v>3332</v>
@@ -18524,7 +18521,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B763">
         <v>3739</v>
@@ -18547,7 +18544,7 @@
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B764">
         <v>1351</v>
@@ -18570,7 +18567,7 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B765">
         <v>7098</v>
@@ -18593,7 +18590,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B766">
         <v>980</v>
@@ -18616,7 +18613,7 @@
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B767">
         <v>7594</v>
@@ -18639,7 +18636,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B768">
         <v>547</v>
@@ -18662,7 +18659,7 @@
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B769">
         <v>220051</v>
@@ -18685,7 +18682,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B770">
         <v>987</v>
@@ -18708,7 +18705,7 @@
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B771">
         <v>1586</v>
@@ -18731,7 +18728,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B772">
         <v>2230</v>
@@ -18754,7 +18751,7 @@
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B773">
         <v>866</v>
@@ -18777,7 +18774,7 @@
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B774">
         <v>1403</v>
@@ -18892,7 +18889,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B779">
         <v>45</v>
@@ -18915,7 +18912,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B780">
         <v>969</v>
@@ -18984,7 +18981,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B783">
         <v>29</v>
@@ -19030,7 +19027,7 @@
     </row>
     <row r="785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B785">
         <v>1338155</v>
@@ -19053,7 +19050,7 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B786">
         <v>177</v>
@@ -19260,7 +19257,7 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B795">
         <v>16795</v>
@@ -19329,7 +19326,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B798">
         <v>566</v>
@@ -19743,7 +19740,7 @@
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B816">
         <v>3015412</v>
@@ -19789,7 +19786,7 @@
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B818">
         <v>283534</v>
@@ -19858,7 +19855,7 @@
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B821">
         <v>29352</v>
@@ -19881,7 +19878,7 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B822">
         <v>1089</v>
@@ -19927,7 +19924,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B824">
         <v>179</v>
@@ -19950,7 +19947,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B825">
         <v>106405</v>
@@ -19973,7 +19970,7 @@
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B826">
         <v>81</v>
@@ -20019,7 +20016,7 @@
     </row>
     <row r="828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B828">
         <v>1211580</v>
@@ -20065,7 +20062,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B830">
         <v>102451</v>
@@ -20134,7 +20131,7 @@
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B833">
         <v>758306</v>
@@ -20180,7 +20177,7 @@
     </row>
     <row r="835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B835">
         <v>2835</v>
@@ -20203,7 +20200,7 @@
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B836">
         <v>3561</v>
@@ -20226,7 +20223,7 @@
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B837">
         <v>8048794</v>
@@ -20272,7 +20269,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B839">
         <v>245</v>
@@ -20387,7 +20384,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B844">
         <v>615523</v>
@@ -20410,7 +20407,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B845">
         <v>105</v>
@@ -20433,7 +20430,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B846">
         <v>533678</v>
@@ -20456,7 +20453,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B847">
         <v>3366</v>
@@ -20479,7 +20476,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B848">
         <v>1431</v>
@@ -20502,7 +20499,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B849">
         <v>82404</v>
@@ -20525,7 +20522,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B850">
         <v>3419</v>
@@ -20548,7 +20545,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B851">
         <v>6541</v>
@@ -20571,7 +20568,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B852">
         <v>597</v>
@@ -20594,7 +20591,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B853">
         <v>1832</v>
@@ -20663,7 +20660,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B856">
         <v>5088</v>
@@ -20686,7 +20683,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B857">
         <v>2675</v>
@@ -20709,7 +20706,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B858">
         <v>1544</v>
@@ -20732,7 +20729,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B859">
         <v>2492</v>
@@ -20755,7 +20752,7 @@
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B860">
         <v>150616</v>
@@ -20801,7 +20798,7 @@
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B862">
         <v>15216</v>
@@ -20824,7 +20821,7 @@
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B863">
         <v>415211</v>
@@ -20847,7 +20844,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B864">
         <v>1192667</v>
@@ -20870,7 +20867,7 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B865">
         <v>2601</v>
@@ -20916,7 +20913,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B867">
         <v>3819</v>
@@ -20939,7 +20936,7 @@
     </row>
     <row r="868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B868">
         <v>1285</v>
@@ -20985,7 +20982,7 @@
     </row>
     <row r="870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B870">
         <v>4044</v>
@@ -21008,7 +21005,7 @@
     </row>
     <row r="871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B871">
         <v>5224</v>
@@ -21031,7 +21028,7 @@
     </row>
     <row r="872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B872">
         <v>671</v>
@@ -21054,7 +21051,7 @@
     </row>
     <row r="873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B873">
         <v>95</v>
@@ -21077,7 +21074,7 @@
     </row>
     <row r="874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B874">
         <v>1763</v>
@@ -21123,7 +21120,7 @@
     </row>
     <row r="876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B876">
         <v>9482</v>
@@ -21146,7 +21143,7 @@
     </row>
     <row r="877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B877">
         <v>0</v>
@@ -21238,7 +21235,7 @@
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B881">
         <v>1702</v>
@@ -21307,7 +21304,7 @@
     </row>
     <row r="884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B884">
         <v>2398</v>
@@ -21330,7 +21327,7 @@
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B885">
         <v>11778</v>
@@ -21399,7 +21396,7 @@
     </row>
     <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B888">
         <v>264</v>
@@ -21422,7 +21419,7 @@
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B889">
         <v>1448</v>
@@ -21445,7 +21442,7 @@
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B890">
         <v>2454</v>
@@ -21491,7 +21488,7 @@
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B892">
         <v>93691</v>
@@ -21514,7 +21511,7 @@
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B893">
         <v>45608</v>
@@ -21537,7 +21534,7 @@
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B894">
         <v>4368</v>
@@ -21583,7 +21580,7 @@
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B896">
         <v>1814</v>
@@ -21606,7 +21603,7 @@
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B897">
         <v>33599</v>
@@ -21652,7 +21649,7 @@
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B899">
         <v>1550</v>
@@ -21698,7 +21695,7 @@
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B901">
         <v>711</v>
@@ -21744,7 +21741,7 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B903">
         <v>1511631</v>
@@ -21928,7 +21925,7 @@
     </row>
     <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B911">
         <v>1089</v>
@@ -21951,7 +21948,7 @@
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B912">
         <v>2072</v>
@@ -21974,7 +21971,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B913">
         <v>3205</v>
@@ -21997,7 +21994,7 @@
     </row>
     <row r="914" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B914">
         <v>1037</v>
@@ -22043,7 +22040,7 @@
     </row>
     <row r="916" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B916">
         <v>6462</v>
@@ -22066,7 +22063,7 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B917">
         <v>140874</v>
@@ -22089,7 +22086,7 @@
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B918">
         <v>1149</v>
@@ -22112,7 +22109,7 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B919">
         <v>4099</v>
@@ -22135,7 +22132,7 @@
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B920">
         <v>15958</v>
@@ -22158,7 +22155,7 @@
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B921">
         <v>3369</v>
@@ -22181,7 +22178,7 @@
     </row>
     <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B922">
         <v>4710</v>
@@ -22204,7 +22201,7 @@
     </row>
     <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B923">
         <v>1666</v>
@@ -22227,7 +22224,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B924">
         <v>8200</v>
@@ -22250,7 +22247,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B925">
         <v>959</v>
@@ -22273,7 +22270,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B926">
         <v>7710</v>
@@ -22296,7 +22293,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B927">
         <v>376</v>
@@ -22319,7 +22316,7 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B928">
         <v>199538</v>
@@ -22342,7 +22339,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B929">
         <v>1029</v>
@@ -22365,7 +22362,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B930">
         <v>1521</v>
@@ -22388,7 +22385,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B931">
         <v>2180</v>
@@ -22411,7 +22408,7 @@
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B932">
         <v>988</v>
@@ -22434,7 +22431,7 @@
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B933">
         <v>999</v>
@@ -22526,7 +22523,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B937">
         <v>48</v>
@@ -22549,7 +22546,7 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B938">
         <v>1011</v>
@@ -22618,7 +22615,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B941">
         <v>35</v>
@@ -22664,7 +22661,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B943">
         <v>1237379</v>
@@ -22687,7 +22684,7 @@
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B944">
         <v>180</v>
@@ -22894,7 +22891,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B953">
         <v>17896</v>
@@ -22963,7 +22960,7 @@
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B956">
         <v>700</v>
@@ -23377,7 +23374,7 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B974">
         <v>3243508</v>
@@ -23423,7 +23420,7 @@
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B976">
         <v>316704</v>
@@ -23492,7 +23489,7 @@
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B979">
         <v>32864</v>
@@ -23515,7 +23512,7 @@
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B980">
         <v>887</v>
@@ -23561,7 +23558,7 @@
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B982">
         <v>201</v>
@@ -23584,7 +23581,7 @@
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B983">
         <v>130995</v>
@@ -23607,7 +23604,7 @@
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B984">
         <v>171</v>
@@ -23653,7 +23650,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B986">
         <v>1166148</v>
@@ -23699,7 +23696,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B988">
         <v>121737</v>
@@ -23768,7 +23765,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B991">
         <v>845191</v>
@@ -23814,7 +23811,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B993">
         <v>3296</v>
@@ -23837,7 +23834,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B994">
         <v>3997</v>
@@ -23860,7 +23857,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B995">
         <v>8912063</v>
@@ -23906,7 +23903,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B997">
         <v>247</v>
@@ -24021,7 +24018,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1002">
         <v>671836</v>
@@ -24044,7 +24041,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1003">
         <v>110</v>
@@ -24067,7 +24064,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1004">
         <v>561884</v>
@@ -24090,7 +24087,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1005">
         <v>3291</v>
@@ -24113,7 +24110,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1006">
         <v>1642</v>
@@ -24136,7 +24133,7 @@
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1007">
         <v>89480</v>
@@ -24159,7 +24156,7 @@
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1008">
         <v>3878</v>
@@ -24182,7 +24179,7 @@
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1009">
         <v>6852</v>
@@ -24205,7 +24202,7 @@
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1010">
         <v>661</v>
@@ -24228,7 +24225,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1011">
         <v>2214</v>
@@ -24297,7 +24294,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1014">
         <v>5561</v>
@@ -24320,7 +24317,7 @@
     </row>
     <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1015">
         <v>3066</v>
@@ -24343,7 +24340,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1016">
         <v>1226</v>
@@ -24366,7 +24363,7 @@
     </row>
     <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1017">
         <v>2737</v>
@@ -24389,7 +24386,7 @@
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1018">
         <v>158414</v>
@@ -24435,7 +24432,7 @@
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1020">
         <v>18126</v>
@@ -24458,7 +24455,7 @@
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1021">
         <v>520041</v>
@@ -24481,7 +24478,7 @@
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1022">
         <v>1184087</v>
@@ -24504,7 +24501,7 @@
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1023">
         <v>2656</v>
@@ -24550,7 +24547,7 @@
     </row>
     <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1025">
         <v>3835</v>
@@ -24573,7 +24570,7 @@
     </row>
     <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1026">
         <v>1420</v>
@@ -24619,7 +24616,7 @@
     </row>
     <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1028">
         <v>4155</v>
@@ -24642,7 +24639,7 @@
     </row>
     <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1029">
         <v>5079</v>
@@ -24665,7 +24662,7 @@
     </row>
     <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1030">
         <v>1689</v>
@@ -24688,7 +24685,7 @@
     </row>
     <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1031">
         <v>101</v>
@@ -24711,7 +24708,7 @@
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1032">
         <v>2108</v>
@@ -24757,7 +24754,7 @@
     </row>
     <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1034">
         <v>9961</v>
@@ -24780,7 +24777,7 @@
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1035">
         <v>2</v>
@@ -24872,7 +24869,7 @@
     </row>
     <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1039">
         <v>1812</v>
@@ -24941,7 +24938,7 @@
     </row>
     <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1042">
         <v>2736</v>
@@ -24964,7 +24961,7 @@
     </row>
     <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1043">
         <v>13525</v>
@@ -25033,7 +25030,7 @@
     </row>
     <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1046">
         <v>350</v>
@@ -25056,7 +25053,7 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1047">
         <v>1602</v>
@@ -25079,7 +25076,7 @@
     </row>
     <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1048">
         <v>2391</v>
@@ -25125,7 +25122,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1050">
         <v>100053</v>
@@ -25148,7 +25145,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1051">
         <v>53426</v>
@@ -25171,7 +25168,7 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1052">
         <v>5321</v>
@@ -25217,7 +25214,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1054">
         <v>2026</v>
@@ -25240,7 +25237,7 @@
     </row>
     <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1055">
         <v>39548</v>
@@ -25286,7 +25283,7 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1057">
         <v>1717</v>
@@ -25332,7 +25329,7 @@
     </row>
     <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1059">
         <v>933</v>
@@ -25378,7 +25375,7 @@
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1061">
         <v>1639133</v>
@@ -25562,7 +25559,7 @@
     </row>
     <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1069">
         <v>1243</v>
@@ -25585,7 +25582,7 @@
     </row>
     <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1070">
         <v>2060</v>
@@ -25608,7 +25605,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1071">
         <v>2964</v>
@@ -25631,7 +25628,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1072">
         <v>1227</v>
@@ -25677,7 +25674,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1074">
         <v>6986</v>
@@ -25700,7 +25697,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1075">
         <v>152657</v>
@@ -25723,7 +25720,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1076">
         <v>1455</v>
@@ -25746,7 +25743,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1077">
         <v>4672</v>
@@ -25769,7 +25766,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1078">
         <v>17223</v>
@@ -25792,7 +25789,7 @@
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1079">
         <v>3848</v>
@@ -25815,7 +25812,7 @@
     </row>
     <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1080">
         <v>5440</v>
@@ -25838,7 +25835,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1081">
         <v>2294</v>
@@ -25861,7 +25858,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1082">
         <v>7875</v>
@@ -25884,7 +25881,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1083">
         <v>1111</v>
@@ -25907,7 +25904,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1084">
         <v>7562</v>
@@ -25930,7 +25927,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1085">
         <v>439</v>
@@ -25953,7 +25950,7 @@
     </row>
     <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1086">
         <v>226188</v>
@@ -25976,7 +25973,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1087">
         <v>1184</v>
@@ -25999,7 +25996,7 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1088">
         <v>1694</v>
@@ -26022,7 +26019,7 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1089">
         <v>2440</v>
@@ -26045,7 +26042,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1090">
         <v>1128</v>
@@ -26068,7 +26065,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1091" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1091">
         <v>986</v>
@@ -26160,7 +26157,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1095">
         <v>52</v>
@@ -26183,7 +26180,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1096">
         <v>1142</v>
@@ -26252,7 +26249,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1099">
         <v>44</v>
@@ -26298,7 +26295,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1101" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1101">
         <v>1429685</v>
@@ -26321,7 +26318,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1102" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1102">
         <v>266</v>
@@ -26528,7 +26525,7 @@
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1111" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B1111">
         <v>17737</v>
@@ -26597,7 +26594,7 @@
     </row>
     <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1114" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1114">
         <v>714</v>
@@ -26919,7 +26916,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1128" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1128">
         <v>183</v>
@@ -27034,7 +27031,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B1133">
         <v>3103021</v>
@@ -27080,7 +27077,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1135">
         <v>286908</v>
@@ -27149,7 +27146,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1138">
         <v>30140</v>
@@ -27172,7 +27169,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1139">
         <v>1130</v>
@@ -27218,7 +27215,7 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1141">
         <v>196</v>
@@ -27241,7 +27238,7 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1142">
         <v>114481</v>
@@ -27264,7 +27261,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1143">
         <v>329</v>
@@ -27310,7 +27307,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1145">
         <v>1239211</v>
@@ -27356,7 +27353,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1147">
         <v>100386</v>
@@ -27425,7 +27422,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1150">
         <v>781338</v>
@@ -27471,7 +27468,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1152">
         <v>2860</v>
@@ -27494,7 +27491,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1153">
         <v>3622</v>
@@ -27517,7 +27514,7 @@
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1154">
         <v>8545669</v>
@@ -27563,7 +27560,7 @@
     </row>
     <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1156">
         <v>214</v>
@@ -27678,7 +27675,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1161">
         <v>635794</v>
@@ -27701,7 +27698,7 @@
     </row>
     <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1162">
         <v>108</v>
@@ -27724,7 +27721,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1163">
         <v>534576</v>
@@ -27747,7 +27744,7 @@
     </row>
     <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1164">
         <v>3018</v>
@@ -27770,7 +27767,7 @@
     </row>
     <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1165">
         <v>1575</v>
@@ -27793,7 +27790,7 @@
     </row>
     <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1166">
         <v>95157</v>
@@ -27816,7 +27813,7 @@
     </row>
     <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1167">
         <v>3271</v>
@@ -27839,7 +27836,7 @@
     </row>
     <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1168">
         <v>6559</v>
@@ -27862,7 +27859,7 @@
     </row>
     <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1169">
         <v>619</v>
@@ -27885,7 +27882,7 @@
     </row>
     <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1170">
         <v>1763</v>
@@ -27954,7 +27951,7 @@
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1173">
         <v>4998</v>
@@ -27977,7 +27974,7 @@
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1174">
         <v>2677</v>
@@ -28000,7 +27997,7 @@
     </row>
     <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1175">
         <v>1082</v>
@@ -28023,7 +28020,7 @@
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1176">
         <v>3202</v>
@@ -28046,7 +28043,7 @@
     </row>
     <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1177">
         <v>146412</v>
@@ -28092,7 +28089,7 @@
     </row>
     <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1179">
         <v>15645</v>
@@ -28115,7 +28112,7 @@
     </row>
     <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1180">
         <v>525280</v>
@@ -28138,7 +28135,7 @@
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1181">
         <v>1136283</v>
@@ -28161,7 +28158,7 @@
     </row>
     <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1182">
         <v>2557</v>
@@ -28207,7 +28204,7 @@
     </row>
     <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1184">
         <v>3669</v>
@@ -28230,7 +28227,7 @@
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1185">
         <v>2788</v>
@@ -28276,7 +28273,7 @@
     </row>
     <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1187">
         <v>3794</v>
@@ -28299,7 +28296,7 @@
     </row>
     <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1188">
         <v>5205</v>
@@ -28322,7 +28319,7 @@
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1189">
         <v>621</v>
@@ -28345,7 +28342,7 @@
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1190">
         <v>130</v>
@@ -28368,7 +28365,7 @@
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1191">
         <v>2150</v>
@@ -28414,7 +28411,7 @@
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1193">
         <v>9651</v>
@@ -28437,7 +28434,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1194">
         <v>1</v>
@@ -28529,7 +28526,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1198">
         <v>1879</v>
@@ -28598,7 +28595,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1201">
         <v>2477</v>
@@ -28621,7 +28618,7 @@
     </row>
     <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1202">
         <v>12691</v>
@@ -28690,7 +28687,7 @@
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1205">
         <v>294</v>
@@ -28713,7 +28710,7 @@
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1206">
         <v>1565</v>
@@ -28736,7 +28733,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1207">
         <v>2180</v>
@@ -28782,7 +28779,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1209">
         <v>95777</v>
@@ -28805,7 +28802,7 @@
     </row>
     <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1210">
         <v>50991</v>
@@ -28828,7 +28825,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1211">
         <v>5611</v>
@@ -28874,7 +28871,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1213">
         <v>1911</v>
@@ -28897,7 +28894,7 @@
     </row>
     <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1214">
         <v>34911</v>
@@ -28943,7 +28940,7 @@
     </row>
     <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1216">
         <v>1537</v>
@@ -28989,7 +28986,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1218">
         <v>914</v>
@@ -29035,7 +29032,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1220">
         <v>1523752</v>
@@ -29219,7 +29216,7 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1228">
         <v>1173</v>
@@ -29242,7 +29239,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1229">
         <v>1832</v>
@@ -29265,7 +29262,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1230">
         <v>2860</v>
@@ -29288,7 +29285,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1231">
         <v>1157</v>
@@ -29334,7 +29331,7 @@
     </row>
     <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1233">
         <v>6568</v>
@@ -29357,7 +29354,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1234">
         <v>143797</v>
@@ -29380,7 +29377,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1235">
         <v>1369</v>
@@ -29403,7 +29400,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1236">
         <v>4000</v>
@@ -29426,7 +29423,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1237">
         <v>16152</v>
@@ -29449,7 +29446,7 @@
     </row>
     <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1238">
         <v>3326</v>
@@ -29472,7 +29469,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1239">
         <v>5081</v>
@@ -29495,7 +29492,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1240">
         <v>2693</v>
@@ -29518,7 +29515,7 @@
     </row>
     <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1241">
         <v>8281</v>
@@ -29541,7 +29538,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1242">
         <v>988</v>
@@ -29564,7 +29561,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1243">
         <v>6815</v>
@@ -29587,7 +29584,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1244">
         <v>372</v>
@@ -29610,7 +29607,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1245">
         <v>215383</v>
@@ -29633,7 +29630,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1246">
         <v>1075</v>
@@ -29656,7 +29653,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1247">
         <v>1493</v>
@@ -29679,7 +29676,7 @@
     </row>
     <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1248" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1248">
         <v>2350</v>
@@ -29702,7 +29699,7 @@
     </row>
     <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1249" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1249">
         <v>1075</v>
@@ -29725,7 +29722,7 @@
     </row>
     <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1250" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1250">
         <v>1329</v>
@@ -29817,7 +29814,7 @@
     </row>
     <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1254" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1254">
         <v>48</v>
@@ -29840,7 +29837,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1255">
         <v>1089</v>
@@ -29909,7 +29906,7 @@
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1258" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1258">
         <v>79</v>
@@ -29955,7 +29952,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1260">
         <v>1319926</v>
@@ -29978,7 +29975,7 @@
     </row>
     <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1261" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1261">
         <v>214</v>
@@ -30185,7 +30182,7 @@
     </row>
     <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1270" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B1270">
         <v>22830</v>
@@ -30254,7 +30251,7 @@
     </row>
     <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1273" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1273">
         <v>923</v>
@@ -30576,7 +30573,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1287">
         <v>938</v>
@@ -30691,7 +30688,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B1292">
         <v>3357823</v>
@@ -30737,7 +30734,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1294">
         <v>323433</v>
@@ -30806,7 +30803,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1297">
         <v>35717</v>
@@ -30829,7 +30826,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1298">
         <v>1194</v>
@@ -30875,7 +30872,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1300">
         <v>195</v>
@@ -30898,7 +30895,7 @@
     </row>
     <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1301" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1301">
         <v>141349</v>
@@ -30921,7 +30918,7 @@
     </row>
     <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1302" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1302">
         <v>372</v>
@@ -30967,7 +30964,7 @@
     </row>
     <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1304" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1304">
         <v>1291288</v>
@@ -31013,7 +31010,7 @@
     </row>
     <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1306" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1306">
         <v>116918</v>
@@ -31082,7 +31079,7 @@
     </row>
     <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1309" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1309">
         <v>844726</v>
@@ -31128,7 +31125,7 @@
     </row>
     <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1311" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1311">
         <v>3338</v>
@@ -31151,7 +31148,7 @@
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1312" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1312">
         <v>4434</v>
@@ -31174,7 +31171,7 @@
     </row>
     <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1313" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1313">
         <v>9776321</v>
@@ -31220,7 +31217,7 @@
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1315" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1315">
         <v>237</v>
@@ -31335,7 +31332,7 @@
     </row>
     <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1320" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1320">
         <v>763967</v>
@@ -31358,7 +31355,7 @@
     </row>
     <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1321" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1321">
         <v>164</v>
@@ -31381,7 +31378,7 @@
     </row>
     <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1322" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1322">
         <v>605843</v>
@@ -31404,7 +31401,7 @@
     </row>
     <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1323" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1323">
         <v>3340</v>
@@ -31427,7 +31424,7 @@
     </row>
     <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1324" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1324">
         <v>1840</v>
@@ -31450,7 +31447,7 @@
     </row>
     <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1325" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1325">
         <v>70061</v>
@@ -31473,7 +31470,7 @@
     </row>
     <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1326" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1326">
         <v>4012</v>
@@ -31496,7 +31493,7 @@
     </row>
     <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1327" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1327">
         <v>7341</v>
@@ -31519,7 +31516,7 @@
     </row>
     <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1328" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1328">
         <v>649</v>
@@ -31542,7 +31539,7 @@
     </row>
     <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1329" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1329">
         <v>2183</v>
@@ -31611,7 +31608,7 @@
     </row>
     <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1332" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1332">
         <v>5851</v>
@@ -31634,7 +31631,7 @@
     </row>
     <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1333" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1333">
         <v>2977</v>
@@ -31657,7 +31654,7 @@
     </row>
     <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1334" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1334">
         <v>1186</v>
@@ -31680,7 +31677,7 @@
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1335" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1335">
         <v>3368</v>
@@ -31703,7 +31700,7 @@
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1336" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1336">
         <v>172381</v>
@@ -31749,7 +31746,7 @@
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1338" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1338">
         <v>20411</v>
@@ -31772,7 +31769,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1339">
         <v>633952</v>
@@ -31795,7 +31792,7 @@
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1340" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1340">
         <v>1313415</v>
@@ -31818,7 +31815,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1341">
         <v>3090</v>
@@ -31864,7 +31861,7 @@
     </row>
     <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1343" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1343">
         <v>4141</v>
@@ -31887,7 +31884,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1344">
         <v>1613</v>
@@ -31933,7 +31930,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1346">
         <v>4130</v>
@@ -31956,7 +31953,7 @@
     </row>
     <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1347" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1347">
         <v>6166</v>
@@ -31979,7 +31976,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1348">
         <v>1011</v>
@@ -32002,7 +31999,7 @@
     </row>
     <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1349" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1349">
         <v>112</v>
@@ -32025,7 +32022,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1350">
         <v>2729</v>
@@ -32071,7 +32068,7 @@
     </row>
     <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1352" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1352">
         <v>11043</v>
@@ -32094,7 +32091,7 @@
     </row>
     <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1353" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1353">
         <v>1</v>
@@ -32186,7 +32183,7 @@
     </row>
     <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1357" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1357">
         <v>2292</v>
@@ -32255,7 +32252,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1360">
         <v>3071</v>
@@ -32278,7 +32275,7 @@
     </row>
     <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1361" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1361">
         <v>14760</v>
@@ -32347,7 +32344,7 @@
     </row>
     <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1364" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1364">
         <v>396</v>
@@ -32370,7 +32367,7 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1365">
         <v>1852</v>
@@ -32393,7 +32390,7 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1366">
         <v>2598</v>
@@ -32439,7 +32436,7 @@
     </row>
     <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1368">
         <v>111941</v>
@@ -32462,7 +32459,7 @@
     </row>
     <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1369">
         <v>58495</v>
@@ -32485,7 +32482,7 @@
     </row>
     <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B1370">
         <v>5016</v>
@@ -32531,7 +32528,7 @@
     </row>
     <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1372">
         <v>2174</v>
@@ -32554,7 +32551,7 @@
     </row>
     <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1373" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1373">
         <v>41299</v>
@@ -32600,7 +32597,7 @@
     </row>
     <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1375">
         <v>1868</v>
@@ -32646,7 +32643,7 @@
     </row>
     <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1377">
         <v>1013</v>
@@ -32692,7 +32689,7 @@
     </row>
     <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1379">
         <v>1724865</v>
@@ -32876,7 +32873,7 @@
     </row>
     <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1387">
         <v>1572</v>
@@ -32899,7 +32896,7 @@
     </row>
     <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1388" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1388">
         <v>2035</v>
@@ -32922,7 +32919,7 @@
     </row>
     <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1389">
         <v>3122</v>
@@ -32945,7 +32942,7 @@
     </row>
     <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1390">
         <v>1324</v>
@@ -32991,7 +32988,7 @@
     </row>
     <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1392">
         <v>7557</v>
@@ -33014,7 +33011,7 @@
     </row>
     <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1393">
         <v>165228</v>
@@ -33037,7 +33034,7 @@
     </row>
     <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1394">
         <v>1497</v>
@@ -33060,7 +33057,7 @@
     </row>
     <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1395">
         <v>4655</v>
@@ -33083,7 +33080,7 @@
     </row>
     <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1396" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1396">
         <v>17866</v>
@@ -33106,7 +33103,7 @@
     </row>
     <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1397" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1397">
         <v>4078</v>
@@ -33129,7 +33126,7 @@
     </row>
     <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1398" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1398">
         <v>6665</v>
@@ -33152,7 +33149,7 @@
     </row>
     <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1399">
         <v>4001</v>
@@ -33175,7 +33172,7 @@
     </row>
     <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1400" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1400">
         <v>11788</v>
@@ -33198,7 +33195,7 @@
     </row>
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1401">
         <v>1224</v>
@@ -33221,7 +33218,7 @@
     </row>
     <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1402" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1402">
         <v>7927</v>
@@ -33244,7 +33241,7 @@
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1403">
         <v>452</v>
@@ -33267,7 +33264,7 @@
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1404">
         <v>244469</v>
@@ -33290,7 +33287,7 @@
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1405" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1405">
         <v>1212</v>
@@ -33313,7 +33310,7 @@
     </row>
     <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1406" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1406">
         <v>1750</v>
@@ -33336,7 +33333,7 @@
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1407">
         <v>2563</v>
@@ -33359,7 +33356,7 @@
     </row>
     <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1408">
         <v>1259</v>
@@ -33382,7 +33379,7 @@
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1409" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1409">
         <v>1740</v>
@@ -33474,7 +33471,7 @@
     </row>
     <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1413">
         <v>59</v>
@@ -33497,7 +33494,7 @@
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1414">
         <v>1203</v>
@@ -33566,7 +33563,7 @@
     </row>
     <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1417" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1417">
         <v>292</v>
@@ -33612,7 +33609,7 @@
     </row>
     <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1419">
         <v>1671858</v>
@@ -33635,7 +33632,7 @@
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1420" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1420">
         <v>290</v>
@@ -33842,7 +33839,7 @@
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B1429">
         <v>54304</v>
@@ -33911,7 +33908,7 @@
     </row>
     <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1432">
         <v>941</v>
@@ -34233,7 +34230,7 @@
     </row>
     <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1446">
         <v>985</v>
@@ -34348,7 +34345,7 @@
     </row>
     <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1451" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B1451">
         <v>3347290</v>
@@ -34394,7 +34391,7 @@
     </row>
     <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1453" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1453">
         <v>315067</v>
@@ -34463,7 +34460,7 @@
     </row>
     <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1456" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1456">
         <v>35771</v>
@@ -34486,7 +34483,7 @@
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1457">
         <v>1146</v>
@@ -34532,7 +34529,7 @@
     </row>
     <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1459">
         <v>156</v>
@@ -34555,7 +34552,7 @@
     </row>
     <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1460" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1460">
         <v>140649</v>
@@ -34578,7 +34575,7 @@
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1461" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1461">
         <v>437</v>
@@ -34624,7 +34621,7 @@
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1463" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1463">
         <v>1318814</v>
@@ -34670,7 +34667,7 @@
     </row>
     <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1465" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1465">
         <v>105416</v>
@@ -34739,7 +34736,7 @@
     </row>
     <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1468" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1468">
         <v>758977</v>
@@ -34785,7 +34782,7 @@
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1470" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1470">
         <v>3304</v>
@@ -34808,7 +34805,7 @@
     </row>
     <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1471" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1471">
         <v>4230</v>
@@ -34831,7 +34828,7 @@
     </row>
     <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1472" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1472">
         <v>9095121</v>
@@ -34877,7 +34874,7 @@
     </row>
     <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1474" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1474">
         <v>221</v>
@@ -34992,7 +34989,7 @@
     </row>
     <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1479" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1479">
         <v>673186</v>
@@ -35015,7 +35012,7 @@
     </row>
     <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1480" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1480">
         <v>123</v>
@@ -35038,7 +35035,7 @@
     </row>
     <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1481" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1481">
         <v>554291</v>
@@ -35061,7 +35058,7 @@
     </row>
     <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1482" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1482">
         <v>3223</v>
@@ -35084,7 +35081,7 @@
     </row>
     <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1483" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1483">
         <v>1952</v>
@@ -35107,7 +35104,7 @@
     </row>
     <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1484" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1484">
         <v>80163</v>
@@ -35130,7 +35127,7 @@
     </row>
     <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1485" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1485">
         <v>3788</v>
@@ -35153,7 +35150,7 @@
     </row>
     <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1486" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1486">
         <v>7392</v>
@@ -35176,7 +35173,7 @@
     </row>
     <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1487" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1487">
         <v>740</v>
@@ -35199,7 +35196,7 @@
     </row>
     <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1488" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1488">
         <v>2439</v>
@@ -35268,7 +35265,7 @@
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1491">
         <v>5890</v>
@@ -35291,7 +35288,7 @@
     </row>
     <row r="1492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1492" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1492">
         <v>3371</v>
@@ -35314,7 +35311,7 @@
     </row>
     <row r="1493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1493" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1493">
         <v>1147</v>
@@ -35337,7 +35334,7 @@
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1494">
         <v>3244</v>
@@ -35360,7 +35357,7 @@
     </row>
     <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1495">
         <v>156897</v>
@@ -35406,7 +35403,7 @@
     </row>
     <row r="1497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1497" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1497">
         <v>19445</v>
@@ -35429,7 +35426,7 @@
     </row>
     <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1498">
         <v>506119</v>
@@ -35452,7 +35449,7 @@
     </row>
     <row r="1499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1499" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1499">
         <v>1248920</v>
@@ -35475,7 +35472,7 @@
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1500">
         <v>2867</v>
@@ -35521,7 +35518,7 @@
     </row>
     <row r="1502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1502" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1502">
         <v>3571</v>
@@ -35544,7 +35541,7 @@
     </row>
     <row r="1503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1503" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1503">
         <v>1567</v>
@@ -35590,7 +35587,7 @@
     </row>
     <row r="1505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1505" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1505">
         <v>4262</v>
@@ -35613,7 +35610,7 @@
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1506">
         <v>6039</v>
@@ -35636,7 +35633,7 @@
     </row>
     <row r="1507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1507" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1507">
         <v>1289</v>
@@ -35659,7 +35656,7 @@
     </row>
     <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1508">
         <v>149</v>
@@ -35682,7 +35679,7 @@
     </row>
     <row r="1509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1509" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1509">
         <v>2638</v>
@@ -35728,7 +35725,7 @@
     </row>
     <row r="1511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1511" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1511">
         <v>10403</v>
@@ -35751,7 +35748,7 @@
     </row>
     <row r="1512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1512" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1512">
         <v>1</v>
@@ -35820,7 +35817,7 @@
     </row>
     <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1515">
         <v>2122</v>
@@ -35889,7 +35886,7 @@
     </row>
     <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1518">
         <v>2815</v>
@@ -35912,7 +35909,7 @@
     </row>
     <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1519">
         <v>14612</v>
@@ -35981,7 +35978,7 @@
     </row>
     <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1522">
         <v>344</v>
@@ -36004,7 +36001,7 @@
     </row>
     <row r="1523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1523" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1523">
         <v>1707</v>
@@ -36027,7 +36024,7 @@
     </row>
     <row r="1524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1524" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1524">
         <v>2506</v>
@@ -36073,7 +36070,7 @@
     </row>
     <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1526">
         <v>93523</v>
@@ -36096,7 +36093,7 @@
     </row>
     <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1527">
         <v>59095</v>
@@ -36142,7 +36139,7 @@
     </row>
     <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1529">
         <v>2147</v>
@@ -36165,7 +36162,7 @@
     </row>
     <row r="1530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1530" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1530">
         <v>42114</v>
@@ -36211,7 +36208,7 @@
     </row>
     <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1532">
         <v>1794</v>
@@ -36257,7 +36254,7 @@
     </row>
     <row r="1534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1534">
         <v>805</v>
@@ -36303,7 +36300,7 @@
     </row>
     <row r="1536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1536">
         <v>1667530</v>
@@ -36487,7 +36484,7 @@
     </row>
     <row r="1544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1544">
         <v>1419</v>
@@ -36510,7 +36507,7 @@
     </row>
     <row r="1545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1545">
         <v>1901</v>
@@ -36533,7 +36530,7 @@
     </row>
     <row r="1546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1546" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1546">
         <v>3069</v>
@@ -36556,7 +36553,7 @@
     </row>
     <row r="1547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1547" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1547">
         <v>1206</v>
@@ -36602,7 +36599,7 @@
     </row>
     <row r="1549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1549">
         <v>9413</v>
@@ -36625,7 +36622,7 @@
     </row>
     <row r="1550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1550" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1550">
         <v>154825</v>
@@ -36648,7 +36645,7 @@
     </row>
     <row r="1551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1551">
         <v>1483</v>
@@ -36671,7 +36668,7 @@
     </row>
     <row r="1552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1552" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1552">
         <v>4602</v>
@@ -36694,7 +36691,7 @@
     </row>
     <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1553">
         <v>18452</v>
@@ -36717,7 +36714,7 @@
     </row>
     <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1554">
         <v>3739</v>
@@ -36740,7 +36737,7 @@
     </row>
     <row r="1555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1555" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1555">
         <v>6397</v>
@@ -36763,7 +36760,7 @@
     </row>
     <row r="1556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1556" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1556">
         <v>4486</v>
@@ -36786,7 +36783,7 @@
     </row>
     <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1557">
         <v>10055</v>
@@ -36809,7 +36806,7 @@
     </row>
     <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1558">
         <v>1224</v>
@@ -36832,7 +36829,7 @@
     </row>
     <row r="1559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1559" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1559">
         <v>7705</v>
@@ -36855,7 +36852,7 @@
     </row>
     <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1560">
         <v>412</v>
@@ -36878,7 +36875,7 @@
     </row>
     <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1561">
         <v>286679</v>
@@ -36901,7 +36898,7 @@
     </row>
     <row r="1562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1562" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1562">
         <v>1315</v>
@@ -36924,7 +36921,7 @@
     </row>
     <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1563">
         <v>1519</v>
@@ -36947,7 +36944,7 @@
     </row>
     <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1564">
         <v>2729</v>
@@ -36970,7 +36967,7 @@
     </row>
     <row r="1565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1565" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1565">
         <v>1328</v>
@@ -36993,7 +36990,7 @@
     </row>
     <row r="1566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1566">
         <v>1875</v>
@@ -37085,7 +37082,7 @@
     </row>
     <row r="1570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1570" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1570">
         <v>51</v>
@@ -37108,7 +37105,7 @@
     </row>
     <row r="1571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1571" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1571">
         <v>1110</v>
@@ -37177,7 +37174,7 @@
     </row>
     <row r="1574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1574" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1574">
         <v>259</v>
@@ -37223,7 +37220,7 @@
     </row>
     <row r="1576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1576" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1576">
         <v>1566123</v>
@@ -37246,7 +37243,7 @@
     </row>
     <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1577">
         <v>231</v>
@@ -37453,7 +37450,7 @@
     </row>
     <row r="1586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B1586">
         <v>37794</v>
@@ -37522,7 +37519,7 @@
     </row>
     <row r="1589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1589">
         <v>1017</v>
@@ -37844,7 +37841,7 @@
     </row>
     <row r="1603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1603" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1603">
         <v>1157</v>
@@ -37959,7 +37956,7 @@
     </row>
     <row r="1608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1608" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B1608">
         <v>3384860</v>
@@ -38005,7 +38002,7 @@
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1610" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1610">
         <v>302449</v>
@@ -38074,7 +38071,7 @@
     </row>
     <row r="1613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1613" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1613">
         <v>33584</v>
@@ -38097,7 +38094,7 @@
     </row>
     <row r="1614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1614" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1614">
         <v>1504</v>
@@ -38143,7 +38140,7 @@
     </row>
     <row r="1616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1616" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1616">
         <v>167</v>
@@ -38166,7 +38163,7 @@
     </row>
     <row r="1617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1617" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1617">
         <v>133279</v>
@@ -38189,7 +38186,7 @@
     </row>
     <row r="1618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1618" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1618">
         <v>501</v>
@@ -38235,7 +38232,7 @@
     </row>
     <row r="1620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1620" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1620">
         <v>1300260</v>
@@ -38281,7 +38278,7 @@
     </row>
     <row r="1622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1622" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1622">
         <v>108963</v>
@@ -38350,7 +38347,7 @@
     </row>
     <row r="1625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1625" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1625">
         <v>700867</v>
@@ -38396,7 +38393,7 @@
     </row>
     <row r="1627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1627" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1627">
         <v>3224</v>
@@ -38419,7 +38416,7 @@
     </row>
     <row r="1628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1628" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1628">
         <v>3930</v>
@@ -38442,7 +38439,7 @@
     </row>
     <row r="1629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1629" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1629">
         <v>8957315</v>
@@ -38488,7 +38485,7 @@
     </row>
     <row r="1631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1631" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1631">
         <v>168</v>
@@ -38603,7 +38600,7 @@
     </row>
     <row r="1636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1636" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1636">
         <v>692847</v>
@@ -38626,7 +38623,7 @@
     </row>
     <row r="1637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1637" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1637">
         <v>131</v>
@@ -38649,7 +38646,7 @@
     </row>
     <row r="1638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1638" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1638">
         <v>562798</v>
@@ -38672,7 +38669,7 @@
     </row>
     <row r="1639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1639">
         <v>3420</v>
@@ -38695,7 +38692,7 @@
     </row>
     <row r="1640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1640" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1640">
         <v>1796</v>
@@ -38718,7 +38715,7 @@
     </row>
     <row r="1641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1641">
         <v>86165</v>
@@ -38741,7 +38738,7 @@
     </row>
     <row r="1642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1642" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1642">
         <v>3390</v>
@@ -38764,7 +38761,7 @@
     </row>
     <row r="1643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1643" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1643">
         <v>7177</v>
@@ -38787,7 +38784,7 @@
     </row>
     <row r="1644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1644">
         <v>644</v>
@@ -38810,7 +38807,7 @@
     </row>
     <row r="1645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1645">
         <v>2002</v>
@@ -38879,7 +38876,7 @@
     </row>
     <row r="1648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1648">
         <v>6077</v>
@@ -38902,7 +38899,7 @@
     </row>
     <row r="1649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1649" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1649">
         <v>3113</v>
@@ -38925,7 +38922,7 @@
     </row>
     <row r="1650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1650">
         <v>1124</v>
@@ -38948,7 +38945,7 @@
     </row>
     <row r="1651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1651">
         <v>3205</v>
@@ -38971,7 +38968,7 @@
     </row>
     <row r="1652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1652" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1652">
         <v>158709</v>
@@ -39017,7 +39014,7 @@
     </row>
     <row r="1654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1654">
         <v>23934</v>
@@ -39040,7 +39037,7 @@
     </row>
     <row r="1655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1655" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1655">
         <v>488523</v>
@@ -39063,7 +39060,7 @@
     </row>
     <row r="1656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1656">
         <v>1250494</v>
@@ -39086,7 +39083,7 @@
     </row>
     <row r="1657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1657" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1657">
         <v>2431</v>
@@ -39132,7 +39129,7 @@
     </row>
     <row r="1659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1659" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1659">
         <v>3655</v>
@@ -39155,7 +39152,7 @@
     </row>
     <row r="1660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1660">
         <v>1519</v>
@@ -39201,7 +39198,7 @@
     </row>
     <row r="1662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1662" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1662">
         <v>4382</v>
@@ -39224,7 +39221,7 @@
     </row>
     <row r="1663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1663" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1663">
         <v>5406</v>
@@ -39247,7 +39244,7 @@
     </row>
     <row r="1664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1664" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1664">
         <v>703</v>
@@ -39270,7 +39267,7 @@
     </row>
     <row r="1665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1665">
         <v>142</v>
@@ -39293,7 +39290,7 @@
     </row>
     <row r="1666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1666">
         <v>2782</v>
@@ -39339,7 +39336,7 @@
     </row>
     <row r="1668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1668">
         <v>10095</v>
@@ -39362,7 +39359,7 @@
     </row>
     <row r="1669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1669">
         <v>3</v>
@@ -39431,7 +39428,7 @@
     </row>
     <row r="1672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1672">
         <v>2079</v>
@@ -39500,7 +39497,7 @@
     </row>
     <row r="1675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1675" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1675">
         <v>2982</v>
@@ -39523,7 +39520,7 @@
     </row>
     <row r="1676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1676">
         <v>14305</v>
@@ -39592,7 +39589,7 @@
     </row>
     <row r="1679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1679">
         <v>439</v>
@@ -39615,7 +39612,7 @@
     </row>
     <row r="1680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1680">
         <v>1744</v>
@@ -39638,7 +39635,7 @@
     </row>
     <row r="1681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1681" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1681">
         <v>2588</v>
@@ -39684,7 +39681,7 @@
     </row>
     <row r="1683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1683">
         <v>92397</v>
@@ -39707,7 +39704,7 @@
     </row>
     <row r="1684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1684">
         <v>56110</v>
@@ -39753,7 +39750,7 @@
     </row>
     <row r="1686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1686" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1686">
         <v>2064</v>
@@ -39776,7 +39773,7 @@
     </row>
     <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1687">
         <v>38274</v>
@@ -39822,7 +39819,7 @@
     </row>
     <row r="1689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1689" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1689">
         <v>1810</v>
@@ -39868,7 +39865,7 @@
     </row>
     <row r="1691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1691">
         <v>973</v>
@@ -39914,7 +39911,7 @@
     </row>
     <row r="1693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1693">
         <v>1632377</v>
@@ -40098,7 +40095,7 @@
     </row>
     <row r="1701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1701" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1701">
         <v>1160</v>
@@ -40121,7 +40118,7 @@
     </row>
     <row r="1702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1702">
         <v>2275</v>
@@ -40144,7 +40141,7 @@
     </row>
     <row r="1703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1703" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1703">
         <v>2930</v>
@@ -40167,7 +40164,7 @@
     </row>
     <row r="1704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1704">
         <v>1134</v>
@@ -40213,7 +40210,7 @@
     </row>
     <row r="1706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1706" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1706">
         <v>6990</v>
@@ -40236,7 +40233,7 @@
     </row>
     <row r="1707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1707" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1707">
         <v>155511</v>
@@ -40259,7 +40256,7 @@
     </row>
     <row r="1708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1708">
         <v>1430</v>
@@ -40282,7 +40279,7 @@
     </row>
     <row r="1709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1709">
         <v>2632</v>
@@ -40305,7 +40302,7 @@
     </row>
     <row r="1710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1710" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1710">
         <v>16133</v>
@@ -40328,7 +40325,7 @@
     </row>
     <row r="1711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1711">
         <v>3640</v>
@@ -40351,7 +40348,7 @@
     </row>
     <row r="1712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1712">
         <v>8603</v>
@@ -40374,7 +40371,7 @@
     </row>
     <row r="1713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1713" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1713">
         <v>4901</v>
@@ -40397,7 +40394,7 @@
     </row>
     <row r="1714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1714">
         <v>8404</v>
@@ -40420,7 +40417,7 @@
     </row>
     <row r="1715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1715">
         <v>1152</v>
@@ -40443,7 +40440,7 @@
     </row>
     <row r="1716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1716" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1716">
         <v>7640</v>
@@ -40466,7 +40463,7 @@
     </row>
     <row r="1717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1717">
         <v>445</v>
@@ -40489,7 +40486,7 @@
     </row>
     <row r="1718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1718" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1718">
         <v>242462</v>
@@ -40512,7 +40509,7 @@
     </row>
     <row r="1719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1719">
         <v>1210</v>
@@ -40535,7 +40532,7 @@
     </row>
     <row r="1720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1720" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1720">
         <v>1569</v>
@@ -40558,7 +40555,7 @@
     </row>
     <row r="1721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1721">
         <v>2840</v>
@@ -40581,7 +40578,7 @@
     </row>
     <row r="1722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1722" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1722">
         <v>1270</v>
@@ -40604,7 +40601,7 @@
     </row>
     <row r="1723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1723" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1723">
         <v>1138</v>
@@ -40696,7 +40693,7 @@
     </row>
     <row r="1727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1727" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1727">
         <v>84</v>
@@ -40719,7 +40716,7 @@
     </row>
     <row r="1728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1728" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1728">
         <v>1170</v>
@@ -40788,7 +40785,7 @@
     </row>
     <row r="1731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1731">
         <v>239</v>
@@ -40834,7 +40831,7 @@
     </row>
     <row r="1733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1733" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1733">
         <v>1650368</v>
@@ -40857,7 +40854,7 @@
     </row>
     <row r="1734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1734">
         <v>2016</v>
@@ -41064,7 +41061,7 @@
     </row>
     <row r="1743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B1743">
         <v>38732</v>
@@ -41133,7 +41130,7 @@
     </row>
     <row r="1746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B1746">
         <v>2003</v>
@@ -41455,7 +41452,7 @@
     </row>
     <row r="1760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1760">
         <v>1381</v>
@@ -41570,7 +41567,7 @@
     </row>
     <row r="1765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B1765">
         <v>3873768</v>
@@ -41616,7 +41613,7 @@
     </row>
     <row r="1767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1767" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1767">
         <v>351573</v>
@@ -41685,7 +41682,7 @@
     </row>
     <row r="1770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1770">
         <v>39375</v>
@@ -41708,7 +41705,7 @@
     </row>
     <row r="1771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1771" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1771">
         <v>1404</v>
@@ -41754,7 +41751,7 @@
     </row>
     <row r="1773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B1773">
         <v>153</v>
@@ -41777,7 +41774,7 @@
     </row>
     <row r="1774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B1774">
         <v>151100</v>
@@ -41800,7 +41797,7 @@
     </row>
     <row r="1775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1775">
         <v>640</v>
@@ -41846,7 +41843,7 @@
     </row>
     <row r="1777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1777">
         <v>1471571</v>
@@ -41892,7 +41889,7 @@
     </row>
     <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1779">
         <v>128271</v>
@@ -41961,7 +41958,7 @@
     </row>
     <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1782">
         <v>820346</v>
@@ -42007,7 +42004,7 @@
     </row>
     <row r="1784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B1784">
         <v>3885</v>
@@ -42030,7 +42027,7 @@
     </row>
     <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1785">
         <v>4781</v>
@@ -42053,7 +42050,7 @@
     </row>
     <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1786">
         <v>10334779</v>
@@ -42099,7 +42096,7 @@
     </row>
     <row r="1788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B1788">
         <v>218</v>
@@ -42214,7 +42211,7 @@
     </row>
     <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1793">
         <v>1460131</v>
@@ -42237,7 +42234,7 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1794">
         <v>209</v>
@@ -42260,7 +42257,7 @@
     </row>
     <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1795">
         <v>693031</v>
@@ -42283,7 +42280,7 @@
     </row>
     <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1796">
         <v>3710</v>
@@ -42306,7 +42303,7 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1797">
         <v>2162</v>
@@ -42329,7 +42326,7 @@
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1798">
         <v>90919</v>
@@ -42352,7 +42349,7 @@
     </row>
     <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1799">
         <v>4320</v>
@@ -42375,7 +42372,7 @@
     </row>
     <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1800">
         <v>8794</v>
@@ -42398,7 +42395,7 @@
     </row>
     <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1801">
         <v>807</v>
@@ -42421,7 +42418,7 @@
     </row>
     <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1802">
         <v>2344</v>
@@ -42490,7 +42487,7 @@
     </row>
     <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1805">
         <v>7154</v>
@@ -42513,7 +42510,7 @@
     </row>
     <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1806">
         <v>3936</v>
@@ -42536,7 +42533,7 @@
     </row>
     <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1807">
         <v>1214</v>
@@ -42559,7 +42556,7 @@
     </row>
     <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1808">
         <v>4061</v>
@@ -42582,7 +42579,7 @@
     </row>
     <row r="1809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1809">
         <v>194131</v>
@@ -42628,7 +42625,7 @@
     </row>
     <row r="1811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1811">
         <v>25761</v>
@@ -42651,7 +42648,7 @@
     </row>
     <row r="1812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1812">
         <v>607250</v>
@@ -42674,7 +42671,7 @@
     </row>
     <row r="1813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1813">
         <v>1535608</v>
@@ -42697,7 +42694,7 @@
     </row>
     <row r="1814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1814">
         <v>3595</v>
@@ -42720,7 +42717,7 @@
     </row>
     <row r="1815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1815">
         <v>2017</v>
@@ -42766,7 +42763,7 @@
     </row>
     <row r="1817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1817">
         <v>4394</v>
@@ -42789,7 +42786,7 @@
     </row>
     <row r="1818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1818">
         <v>1585</v>
@@ -42835,7 +42832,7 @@
     </row>
     <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1820">
         <v>5229</v>
@@ -42858,7 +42855,7 @@
     </row>
     <row r="1821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1821">
         <v>6400</v>
@@ -42881,7 +42878,7 @@
     </row>
     <row r="1822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1822">
         <v>1264</v>
@@ -42904,7 +42901,7 @@
     </row>
     <row r="1823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1823">
         <v>196</v>
@@ -42927,7 +42924,7 @@
     </row>
     <row r="1824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1824">
         <v>3053</v>
@@ -42973,7 +42970,7 @@
     </row>
     <row r="1826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1826">
         <v>12093</v>
@@ -43042,7 +43039,7 @@
     </row>
     <row r="1829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1829">
         <v>2566</v>
@@ -43111,7 +43108,7 @@
     </row>
     <row r="1832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1832">
         <v>4426</v>
@@ -43134,7 +43131,7 @@
     </row>
     <row r="1833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1833">
         <v>16826</v>
@@ -43203,7 +43200,7 @@
     </row>
     <row r="1836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B1836">
         <v>2248</v>
@@ -43226,7 +43223,7 @@
     </row>
     <row r="1837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1837">
         <v>541</v>
@@ -43249,7 +43246,7 @@
     </row>
     <row r="1838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B1838">
         <v>2088</v>
@@ -43272,7 +43269,7 @@
     </row>
     <row r="1839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1839" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1839">
         <v>3059</v>
@@ -43318,7 +43315,7 @@
     </row>
     <row r="1841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1841">
         <v>107852</v>
@@ -43341,7 +43338,7 @@
     </row>
     <row r="1842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1842" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1842">
         <v>70276</v>
@@ -43387,7 +43384,7 @@
     </row>
     <row r="1844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1844">
         <v>2413</v>
@@ -43410,7 +43407,7 @@
     </row>
     <row r="1845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1845">
         <v>45625</v>
@@ -43456,7 +43453,7 @@
     </row>
     <row r="1847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1847">
         <v>2111</v>
@@ -43502,7 +43499,7 @@
     </row>
     <row r="1849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B1849">
         <v>997</v>
@@ -43548,7 +43545,7 @@
     </row>
     <row r="1851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1851" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1851">
         <v>1832559</v>
@@ -43732,7 +43729,7 @@
     </row>
     <row r="1859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1859" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1859">
         <v>1866</v>
@@ -43755,7 +43752,7 @@
     </row>
     <row r="1860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1860" t="s">
-        <v>151</v>
+        <v>184</v>
       </c>
       <c r="B1860">
         <v>2747</v>
@@ -43778,7 +43775,7 @@
     </row>
     <row r="1861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1861">
         <v>3623</v>
@@ -43801,7 +43798,7 @@
     </row>
     <row r="1862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1862">
         <v>1354</v>
@@ -43847,7 +43844,7 @@
     </row>
     <row r="1864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1864">
         <v>8496</v>
@@ -43870,7 +43867,7 @@
     </row>
     <row r="1865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1865">
         <v>180500</v>
@@ -43893,7 +43890,7 @@
     </row>
     <row r="1866" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1866" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1866">
         <v>1677</v>
@@ -43916,7 +43913,7 @@
     </row>
     <row r="1867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1867">
         <v>3202</v>
@@ -43939,7 +43936,7 @@
     </row>
     <row r="1868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1868">
         <v>18809</v>
@@ -43962,7 +43959,7 @@
     </row>
     <row r="1869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1869" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1869">
         <v>4160</v>
@@ -43985,7 +43982,7 @@
     </row>
     <row r="1870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1870">
         <v>10930</v>
@@ -44008,7 +44005,7 @@
     </row>
     <row r="1871" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1871" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1871">
         <v>6437</v>
@@ -44031,7 +44028,7 @@
     </row>
     <row r="1872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1872">
         <v>10988</v>
@@ -44054,7 +44051,7 @@
     </row>
     <row r="1873" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1873" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1873">
         <v>1213</v>
@@ -44077,7 +44074,7 @@
     </row>
     <row r="1874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B1874">
         <v>8545</v>
@@ -44100,7 +44097,7 @@
     </row>
     <row r="1875" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1875" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1875">
         <v>506</v>
@@ -44123,7 +44120,7 @@
     </row>
     <row r="1876" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1876" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B1876">
         <v>278125</v>
@@ -44146,7 +44143,7 @@
     </row>
     <row r="1877" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1877" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1877">
         <v>1471</v>
@@ -44169,7 +44166,7 @@
     </row>
     <row r="1878" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1878" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B1878">
         <v>1948</v>
@@ -44192,7 +44189,7 @@
     </row>
     <row r="1879" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1879" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B1879">
         <v>3349</v>
@@ -44215,7 +44212,7 @@
     </row>
     <row r="1880" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1880" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B1880">
         <v>1674</v>
@@ -44238,7 +44235,7 @@
     </row>
     <row r="1881" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1881" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B1881">
         <v>1299</v>
@@ -44330,7 +44327,7 @@
     </row>
     <row r="1885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B1885">
         <v>45</v>
@@ -44353,7 +44350,7 @@
     </row>
     <row r="1886" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1886" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B1886">
         <v>1379</v>
@@ -44422,7 +44419,7 @@
     </row>
     <row r="1889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B1889">
         <v>274</v>
@@ -44468,7 +44465,7 @@
     </row>
     <row r="1891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B1891">
         <v>1877270</v>
@@ -44491,7 +44488,7 @@
     </row>
     <row r="1892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B1892">
         <v>306</v>
